--- a/output/crit_activity_relationship.xlsx
+++ b/output/crit_activity_relationship.xlsx
@@ -58,7 +58,7 @@
     <t>Critério 4 - Propor uma solução para organizar e exibir as informações (quais?)</t>
   </si>
   <si>
-    <t>Decidir qual meio de acesso (site, aplicativo - desktop ou mobile)</t>
+    <t>Decidir como e qual meio de acesso (site, aplicativo - desktop ou mobile)</t>
   </si>
   <si>
     <t>Critério 5 - Preparar um relatório apresentando a solução (máximo 3 páginas)</t>

--- a/output/crit_activity_relationship.xlsx
+++ b/output/crit_activity_relationship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="71">
   <si>
     <t>Critérios</t>
   </si>
@@ -28,12 +28,48 @@
     <t>Criar automatização da analise das tags</t>
   </si>
   <si>
+    <t>Adicionar tags do sprint 2</t>
+  </si>
+  <si>
     <t>Critério 1 - Conhecer as características e parâmetros importantes que podem ser obtidos a partir dos registros funcionais dos policiais</t>
   </si>
   <si>
     <t>Contatar o cliente e ver quais informações deseja exibir e organizar</t>
   </si>
   <si>
+    <t>Modelar banco de dados</t>
+  </si>
+  <si>
+    <t>Confirmar outputs de aposentadoria com o tenente</t>
+  </si>
+  <si>
+    <t>Arrumar campos sem tipo na modelagem do banco de dados</t>
+  </si>
+  <si>
+    <t>Adicionar campo de foto de perfil no modelo do banco de dados</t>
+  </si>
+  <si>
+    <t>Criar janela pra adicionar, remover e alterar informação de uma pessoa</t>
+  </si>
+  <si>
+    <t>Animação das telas para a apresentação</t>
+  </si>
+  <si>
+    <t>Critério 10 - Entregar um relatório para apresentar a solução.O público-alvo deste relatório é o comando da polícia (2 a 5 páginas), para decidir se querem investir na solução</t>
+  </si>
+  <si>
+    <t>Documentação da API</t>
+  </si>
+  <si>
+    <t>Relatório 2a Sprint</t>
+  </si>
+  <si>
+    <t>Critério 11 - Apresentar a solução para o público geral (máximo 10 minutos).</t>
+  </si>
+  <si>
+    <t>Slides Apresentação 2a Sprint</t>
+  </si>
+  <si>
     <t>Critério 2 - Conhecer os critérios legais que dão direito ao policial militar passar da ativa para a reserva remunerada (aposentadoria)</t>
   </si>
   <si>
@@ -52,25 +88,145 @@
     <t>Depois de obter as informações com o cliente, fazer uma reunião para definir as tarefas.</t>
   </si>
   <si>
+    <t>Escolher tipo do banco de dados</t>
+  </si>
+  <si>
+    <t>Buscar refrencias de design app desktop</t>
+  </si>
+  <si>
     <t>Fazer um programa em python para analisar os dados (Modo simples)</t>
   </si>
   <si>
+    <t>adicionar coluna de dt_aposentadoria na Tabela Militares</t>
+  </si>
+  <si>
+    <t>Alterar lógica do calculo de aposentadoria no programa testa</t>
+  </si>
+  <si>
+    <t>Fazer designes referentes à alocação de pessoal</t>
+  </si>
+  <si>
+    <t>Fazer Designes referentes à busca de aposentados</t>
+  </si>
+  <si>
+    <t>Fazer Designes refrentes a dashboads</t>
+  </si>
+  <si>
+    <t>Criar design referente à adição de informações de administrador</t>
+  </si>
+  <si>
+    <t>Reunião para discutir estrutura da API</t>
+  </si>
+  <si>
+    <t>Colocar na modelagem a tabela de alocação</t>
+  </si>
+  <si>
+    <t>Fazer as Migrations e as Seeds do banco de dados no Github do Backend</t>
+  </si>
+  <si>
     <t>Critério 4 - Propor uma solução para organizar e exibir as informações (quais?)</t>
   </si>
   <si>
+    <t>Estudar ElectonJS e fazer um app básico</t>
+  </si>
+  <si>
     <t>Decidir como e qual meio de acesso (site, aplicativo - desktop ou mobile)</t>
   </si>
   <si>
+    <t>Fazer as novas abas do gerenciamento</t>
+  </si>
+  <si>
     <t>Critério 5 - Preparar um relatório apresentando a solução (máximo 3 páginas)</t>
   </si>
   <si>
     <t>Criar o Google Docs para o relatório</t>
   </si>
   <si>
+    <t>Inserir informações no relatório</t>
+  </si>
+  <si>
+    <t>Refatorar relatório</t>
+  </si>
+  <si>
     <t>Critério 6 - Apresentar a proposta para o público e para o cliente, que deverá validar e/ou sugerir alterações (máximo 15 minutos)</t>
   </si>
   <si>
-    <t>1a Apresentação (Story 1)</t>
+    <t>Fazer slides para 1a Apresentação (Story 1)</t>
+  </si>
+  <si>
+    <t>Critério 7 - Implementação</t>
+  </si>
+  <si>
+    <t>Batch 1 - Backend</t>
+  </si>
+  <si>
+    <t>Batch 3 - Backend</t>
+  </si>
+  <si>
+    <t>Batch 2 - Backend</t>
+  </si>
+  <si>
+    <t>Batch 5 - Backend</t>
+  </si>
+  <si>
+    <t>Critério 8 - Criar uma página na internet ou aplicativo, com linguagem clara e objetiva, para que o administrador/tenente tenha acesso em tempo real às informações sobre sua equipe (quais??)</t>
+  </si>
+  <si>
+    <t>Batch 1 Frontend</t>
+  </si>
+  <si>
+    <t>Criar repositório do Frontend</t>
+  </si>
+  <si>
+    <t>Batch 2 Frontend</t>
+  </si>
+  <si>
+    <t>Batch 3 Frontend</t>
+  </si>
+  <si>
+    <t>Batch 4 Frontend</t>
+  </si>
+  <si>
+    <t>Batch 5 Frontend</t>
+  </si>
+  <si>
+    <t>Batch 6 Frontend</t>
+  </si>
+  <si>
+    <t>Critério 9 - Publicar um vídeo, com instruções de uso, que apresente a solução para o consumidor (de 2 a 5 minutos).</t>
+  </si>
+  <si>
+    <t>Publicar um vídeo</t>
+  </si>
+  <si>
+    <t>Des. Frontend</t>
+  </si>
+  <si>
+    <t>Adicionar as checklists dos batches do frontend</t>
+  </si>
+  <si>
+    <t>Estudo</t>
+  </si>
+  <si>
+    <t>Fazer o tutorial da rocketseat</t>
+  </si>
+  <si>
+    <t>Relatório Retro</t>
+  </si>
+  <si>
+    <t>Relatório com as respostas da retrospectiva</t>
+  </si>
+  <si>
+    <t>Rotas API</t>
+  </si>
+  <si>
+    <t>organizar a tarefas da API em batches</t>
+  </si>
+  <si>
+    <t>Reunião para fazer as migrations</t>
+  </si>
+  <si>
+    <t>Rota para login</t>
   </si>
 </sst>
 </file>
@@ -402,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,66 +582,66 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -493,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -501,38 +657,599 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A35"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A77:A84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
